--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H2">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I2">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J2">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.419031663266777</v>
+        <v>0.463258</v>
       </c>
       <c r="N2">
-        <v>0.419031663266777</v>
+        <v>1.389774</v>
       </c>
       <c r="O2">
-        <v>0.3476087628360112</v>
+        <v>0.2769221572755196</v>
       </c>
       <c r="P2">
-        <v>0.3476087628360112</v>
+        <v>0.2827409828087907</v>
       </c>
       <c r="Q2">
-        <v>48.54004809849762</v>
+        <v>57.43887176374534</v>
       </c>
       <c r="R2">
-        <v>48.54004809849762</v>
+        <v>516.9498458737081</v>
       </c>
       <c r="S2">
-        <v>0.06699316108766679</v>
+        <v>0.05412355478339388</v>
       </c>
       <c r="T2">
-        <v>0.06699316108766679</v>
+        <v>0.06036017293720847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H3">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I3">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J3">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.78643755404539</v>
+        <v>0.9126616666666667</v>
       </c>
       <c r="N3">
-        <v>0.78643755404539</v>
+        <v>2.737985</v>
       </c>
       <c r="O3">
-        <v>0.6523912371639889</v>
+        <v>0.5455625970755055</v>
       </c>
       <c r="P3">
-        <v>0.6523912371639889</v>
+        <v>0.5570262285923658</v>
       </c>
       <c r="Q3">
-        <v>91.0998381416459</v>
+        <v>113.1599593214856</v>
       </c>
       <c r="R3">
-        <v>91.0998381416459</v>
+        <v>1018.43963389337</v>
       </c>
       <c r="S3">
-        <v>0.1257325934102763</v>
+        <v>0.1066284742293428</v>
       </c>
       <c r="T3">
-        <v>0.1257325934102763</v>
+        <v>0.1189151963552942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>197.799631374202</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H4">
-        <v>197.799631374202</v>
+        <v>371.966842</v>
       </c>
       <c r="I4">
-        <v>0.3290878670894614</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J4">
-        <v>0.3290878670894614</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.419031663266777</v>
+        <v>0.1322646666666667</v>
       </c>
       <c r="N4">
-        <v>0.419031663266777</v>
+        <v>0.396794</v>
       </c>
       <c r="O4">
-        <v>0.3476087628360112</v>
+        <v>0.07906397045417637</v>
       </c>
       <c r="P4">
-        <v>0.3476087628360112</v>
+        <v>0.08072530176318687</v>
       </c>
       <c r="Q4">
-        <v>82.88430852828722</v>
+        <v>16.39935678939422</v>
       </c>
       <c r="R4">
-        <v>82.88430852828722</v>
+        <v>147.594211104548</v>
       </c>
       <c r="S4">
-        <v>0.1143938263433093</v>
+        <v>0.01545280153227934</v>
       </c>
       <c r="T4">
-        <v>0.1143938263433093</v>
+        <v>0.01723341669972722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>197.799631374202</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H5">
-        <v>197.799631374202</v>
+        <v>371.966842</v>
       </c>
       <c r="I5">
-        <v>0.3290878670894614</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J5">
-        <v>0.3290878670894614</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.78643755404539</v>
+        <v>0.06141333333333333</v>
       </c>
       <c r="N5">
-        <v>0.78643755404539</v>
+        <v>0.18424</v>
       </c>
       <c r="O5">
-        <v>0.6523912371639889</v>
+        <v>0.03671110429209477</v>
       </c>
       <c r="P5">
-        <v>0.6523912371639889</v>
+        <v>0.03748249619916014</v>
       </c>
       <c r="Q5">
-        <v>155.5570582890072</v>
+        <v>7.614574552231111</v>
       </c>
       <c r="R5">
-        <v>155.5570582890072</v>
+        <v>68.53117097008</v>
       </c>
       <c r="S5">
-        <v>0.2146940407461521</v>
+        <v>0.007175068560278496</v>
       </c>
       <c r="T5">
-        <v>0.2146940407461521</v>
+        <v>0.008001846531847111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.0590918178804</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H6">
-        <v>68.0590918178804</v>
+        <v>371.966842</v>
       </c>
       <c r="I6">
-        <v>0.113232877163558</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J6">
-        <v>0.113232877163558</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.419031663266777</v>
+        <v>0.103284</v>
       </c>
       <c r="N6">
-        <v>0.419031663266777</v>
+        <v>0.206568</v>
       </c>
       <c r="O6">
-        <v>0.3476087628360112</v>
+        <v>0.06174017090270382</v>
       </c>
       <c r="P6">
-        <v>0.3476087628360112</v>
+        <v>0.04202499063649649</v>
       </c>
       <c r="Q6">
-        <v>28.51891444487272</v>
+        <v>12.806074436376</v>
       </c>
       <c r="R6">
-        <v>28.51891444487272</v>
+        <v>76.83644661825601</v>
       </c>
       <c r="S6">
-        <v>0.03936074034318643</v>
+        <v>0.01206692001486872</v>
       </c>
       <c r="T6">
-        <v>0.03936074034318643</v>
+        <v>0.008971588332558587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.0590918178804</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H7">
-        <v>68.0590918178804</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.113232877163558</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J7">
-        <v>0.113232877163558</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.78643755404539</v>
+        <v>0.463258</v>
       </c>
       <c r="N7">
-        <v>0.78643755404539</v>
+        <v>1.389774</v>
       </c>
       <c r="O7">
-        <v>0.6523912371639889</v>
+        <v>0.2769221572755196</v>
       </c>
       <c r="P7">
-        <v>0.6523912371639889</v>
+        <v>0.2827409828087907</v>
       </c>
       <c r="Q7">
-        <v>53.52422569980448</v>
+        <v>97.85311950334666</v>
       </c>
       <c r="R7">
-        <v>53.52422569980448</v>
+        <v>880.6780755301199</v>
       </c>
       <c r="S7">
-        <v>0.07387213682037162</v>
+        <v>0.09220513062911931</v>
       </c>
       <c r="T7">
-        <v>0.07387213682037162</v>
+        <v>0.1028298612821186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.5518471348649</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H8">
-        <v>60.5518471348649</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.100742747008672</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J8">
-        <v>0.100742747008672</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.419031663266777</v>
+        <v>0.9126616666666667</v>
       </c>
       <c r="N8">
-        <v>0.419031663266777</v>
+        <v>2.737985</v>
       </c>
       <c r="O8">
-        <v>0.3476087628360112</v>
+        <v>0.5455625970755055</v>
       </c>
       <c r="P8">
-        <v>0.3476087628360112</v>
+        <v>0.5570262285923658</v>
       </c>
       <c r="Q8">
-        <v>25.37314121879806</v>
+        <v>192.7798141304778</v>
       </c>
       <c r="R8">
-        <v>25.37314121879806</v>
+        <v>1735.0183271743</v>
       </c>
       <c r="S8">
-        <v>0.03501906165238573</v>
+        <v>0.1816527468391042</v>
       </c>
       <c r="T8">
-        <v>0.03501906165238573</v>
+        <v>0.2025844617488321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.5518471348649</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H9">
-        <v>60.5518471348649</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.100742747008672</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J9">
-        <v>0.100742747008672</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.78643755404539</v>
+        <v>0.1322646666666667</v>
       </c>
       <c r="N9">
-        <v>0.78643755404539</v>
+        <v>0.396794</v>
       </c>
       <c r="O9">
-        <v>0.6523912371639889</v>
+        <v>0.07906397045417637</v>
       </c>
       <c r="P9">
-        <v>0.6523912371639889</v>
+        <v>0.08072530176318687</v>
       </c>
       <c r="Q9">
-        <v>47.6202465536735</v>
+        <v>27.93801776419111</v>
       </c>
       <c r="R9">
-        <v>47.6202465536735</v>
+        <v>251.4421598777199</v>
       </c>
       <c r="S9">
-        <v>0.06572368535628624</v>
+        <v>0.02632546198363962</v>
       </c>
       <c r="T9">
-        <v>0.06572368535628624</v>
+        <v>0.02935892596751483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>158.804972836137</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H10">
-        <v>158.804972836137</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I10">
-        <v>0.2642107542403656</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J10">
-        <v>0.2642107542403656</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.419031663266777</v>
+        <v>0.06141333333333333</v>
       </c>
       <c r="N10">
-        <v>0.419031663266777</v>
+        <v>0.18424</v>
       </c>
       <c r="O10">
-        <v>0.3476087628360112</v>
+        <v>0.03671110429209477</v>
       </c>
       <c r="P10">
-        <v>0.3476087628360112</v>
+        <v>0.03748249619916014</v>
       </c>
       <c r="Q10">
-        <v>66.54431190256183</v>
+        <v>12.97222335235555</v>
       </c>
       <c r="R10">
-        <v>66.54431190256183</v>
+        <v>116.7500101712</v>
       </c>
       <c r="S10">
-        <v>0.09184197340946286</v>
+        <v>0.01222347897363811</v>
       </c>
       <c r="T10">
-        <v>0.09184197340946286</v>
+        <v>0.01363198163342927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>211.2281266666666</v>
+      </c>
+      <c r="H11">
+        <v>633.6843799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.3329640774731549</v>
+      </c>
+      <c r="J11">
+        <v>0.3636892687455195</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.103284</v>
+      </c>
+      <c r="N11">
+        <v>0.206568</v>
+      </c>
+      <c r="O11">
+        <v>0.06174017090270382</v>
+      </c>
+      <c r="P11">
+        <v>0.04202499063649649</v>
+      </c>
+      <c r="Q11">
+        <v>21.81648583464</v>
+      </c>
+      <c r="R11">
+        <v>130.89891500784</v>
+      </c>
+      <c r="S11">
+        <v>0.0205572590476537</v>
+      </c>
+      <c r="T11">
+        <v>0.01528403811362471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H12">
+        <v>232.903919</v>
+      </c>
+      <c r="I12">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J12">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.463258</v>
+      </c>
+      <c r="N12">
+        <v>1.389774</v>
+      </c>
+      <c r="O12">
+        <v>0.2769221572755196</v>
+      </c>
+      <c r="P12">
+        <v>0.2827409828087907</v>
+      </c>
+      <c r="Q12">
+        <v>35.96486790270066</v>
+      </c>
+      <c r="R12">
+        <v>323.683811124306</v>
+      </c>
+      <c r="S12">
+        <v>0.0338890099759581</v>
+      </c>
+      <c r="T12">
+        <v>0.03779401613596943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>158.804972836137</v>
-      </c>
-      <c r="H11">
-        <v>158.804972836137</v>
-      </c>
-      <c r="I11">
-        <v>0.2642107542403656</v>
-      </c>
-      <c r="J11">
-        <v>0.2642107542403656</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.78643755404539</v>
-      </c>
-      <c r="N11">
-        <v>0.78643755404539</v>
-      </c>
-      <c r="O11">
-        <v>0.6523912371639889</v>
-      </c>
-      <c r="P11">
-        <v>0.6523912371639889</v>
-      </c>
-      <c r="Q11">
-        <v>124.8901944074962</v>
-      </c>
-      <c r="R11">
-        <v>124.8901944074962</v>
-      </c>
-      <c r="S11">
-        <v>0.1723687808309027</v>
-      </c>
-      <c r="T11">
-        <v>0.1723687808309027</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H13">
+        <v>232.903919</v>
+      </c>
+      <c r="I13">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J13">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9126616666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.737985</v>
+      </c>
+      <c r="O13">
+        <v>0.5455625970755055</v>
+      </c>
+      <c r="P13">
+        <v>0.5570262285923658</v>
+      </c>
+      <c r="Q13">
+        <v>70.85415962924611</v>
+      </c>
+      <c r="R13">
+        <v>637.687436663215</v>
+      </c>
+      <c r="S13">
+        <v>0.06676452500839966</v>
+      </c>
+      <c r="T13">
+        <v>0.07445775303757463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H14">
+        <v>232.903919</v>
+      </c>
+      <c r="I14">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J14">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1322646666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.396794</v>
+      </c>
+      <c r="O14">
+        <v>0.07906397045417637</v>
+      </c>
+      <c r="P14">
+        <v>0.08072530176318687</v>
+      </c>
+      <c r="Q14">
+        <v>10.26831973729844</v>
+      </c>
+      <c r="R14">
+        <v>92.41487763568598</v>
+      </c>
+      <c r="S14">
+        <v>0.009675642100370503</v>
+      </c>
+      <c r="T14">
+        <v>0.01079055935616572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H15">
+        <v>232.903919</v>
+      </c>
+      <c r="I15">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J15">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.06141333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.18424</v>
+      </c>
+      <c r="O15">
+        <v>0.03671110429209477</v>
+      </c>
+      <c r="P15">
+        <v>0.03748249619916014</v>
+      </c>
+      <c r="Q15">
+        <v>4.767802004062221</v>
+      </c>
+      <c r="R15">
+        <v>42.91021803655999</v>
+      </c>
+      <c r="S15">
+        <v>0.004492609012667181</v>
+      </c>
+      <c r="T15">
+        <v>0.005010289106639646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H16">
+        <v>232.903919</v>
+      </c>
+      <c r="I16">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J16">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.103284</v>
+      </c>
+      <c r="N16">
+        <v>0.206568</v>
+      </c>
+      <c r="O16">
+        <v>0.06174017090270382</v>
+      </c>
+      <c r="P16">
+        <v>0.04202499063649649</v>
+      </c>
+      <c r="Q16">
+        <v>8.018416123331999</v>
+      </c>
+      <c r="R16">
+        <v>48.11049673999199</v>
+      </c>
+      <c r="S16">
+        <v>0.007555600780465434</v>
+      </c>
+      <c r="T16">
+        <v>0.005617484803410434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H17">
+        <v>182.257702</v>
+      </c>
+      <c r="I17">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J17">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.463258</v>
+      </c>
+      <c r="N17">
+        <v>1.389774</v>
+      </c>
+      <c r="O17">
+        <v>0.2769221572755196</v>
+      </c>
+      <c r="P17">
+        <v>0.2827409828087907</v>
+      </c>
+      <c r="Q17">
+        <v>28.14411283770533</v>
+      </c>
+      <c r="R17">
+        <v>253.297015539348</v>
+      </c>
+      <c r="S17">
+        <v>0.02651966144577069</v>
+      </c>
+      <c r="T17">
+        <v>0.02957550289350308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H18">
+        <v>182.257702</v>
+      </c>
+      <c r="I18">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J18">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9126616666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.737985</v>
+      </c>
+      <c r="O18">
+        <v>0.5455625970755055</v>
+      </c>
+      <c r="P18">
+        <v>0.5570262285923658</v>
+      </c>
+      <c r="Q18">
+        <v>55.44653935671889</v>
+      </c>
+      <c r="R18">
+        <v>499.01885421047</v>
+      </c>
+      <c r="S18">
+        <v>0.05224621790564397</v>
+      </c>
+      <c r="T18">
+        <v>0.05826651188601027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H19">
+        <v>182.257702</v>
+      </c>
+      <c r="I19">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J19">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1322646666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.396794</v>
+      </c>
+      <c r="O19">
+        <v>0.07906397045417637</v>
+      </c>
+      <c r="P19">
+        <v>0.08072530176318687</v>
+      </c>
+      <c r="Q19">
+        <v>8.035418067487555</v>
+      </c>
+      <c r="R19">
+        <v>72.318762607388</v>
+      </c>
+      <c r="S19">
+        <v>0.007571621388594932</v>
+      </c>
+      <c r="T19">
+        <v>0.008444093856356976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H20">
+        <v>182.257702</v>
+      </c>
+      <c r="I20">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J20">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06141333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.18424</v>
+      </c>
+      <c r="O20">
+        <v>0.03671110429209477</v>
+      </c>
+      <c r="P20">
+        <v>0.03748249619916014</v>
+      </c>
+      <c r="Q20">
+        <v>3.731017668497777</v>
+      </c>
+      <c r="R20">
+        <v>33.57915901648</v>
+      </c>
+      <c r="S20">
+        <v>0.003515666881643195</v>
+      </c>
+      <c r="T20">
+        <v>0.003920774638969363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H21">
+        <v>182.257702</v>
+      </c>
+      <c r="I21">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J21">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.103284</v>
+      </c>
+      <c r="N21">
+        <v>0.206568</v>
+      </c>
+      <c r="O21">
+        <v>0.06174017090270382</v>
+      </c>
+      <c r="P21">
+        <v>0.04202499063649649</v>
+      </c>
+      <c r="Q21">
+        <v>6.274768164456</v>
+      </c>
+      <c r="R21">
+        <v>37.648608986736</v>
+      </c>
+      <c r="S21">
+        <v>0.005912594521335798</v>
+      </c>
+      <c r="T21">
+        <v>0.004395932347061569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>160.7828525</v>
+      </c>
+      <c r="H22">
+        <v>321.565705</v>
+      </c>
+      <c r="I22">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J22">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.463258</v>
+      </c>
+      <c r="N22">
+        <v>1.389774</v>
+      </c>
+      <c r="O22">
+        <v>0.2769221572755196</v>
+      </c>
+      <c r="P22">
+        <v>0.2827409828087907</v>
+      </c>
+      <c r="Q22">
+        <v>74.48394268344499</v>
+      </c>
+      <c r="R22">
+        <v>446.90365610067</v>
+      </c>
+      <c r="S22">
+        <v>0.07018480044127766</v>
+      </c>
+      <c r="T22">
+        <v>0.05218142955999115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>160.7828525</v>
+      </c>
+      <c r="H23">
+        <v>321.565705</v>
+      </c>
+      <c r="I23">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J23">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9126616666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.737985</v>
+      </c>
+      <c r="O23">
+        <v>0.5455625970755055</v>
+      </c>
+      <c r="P23">
+        <v>0.5570262285923658</v>
+      </c>
+      <c r="Q23">
+        <v>146.7403461340708</v>
+      </c>
+      <c r="R23">
+        <v>880.442076804425</v>
+      </c>
+      <c r="S23">
+        <v>0.1382706330930148</v>
+      </c>
+      <c r="T23">
+        <v>0.1028023055646547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>160.7828525</v>
+      </c>
+      <c r="H24">
+        <v>321.565705</v>
+      </c>
+      <c r="I24">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J24">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1322646666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.396794</v>
+      </c>
+      <c r="O24">
+        <v>0.07906397045417637</v>
+      </c>
+      <c r="P24">
+        <v>0.08072530176318687</v>
+      </c>
+      <c r="Q24">
+        <v>21.26589039162833</v>
+      </c>
+      <c r="R24">
+        <v>127.59534234977</v>
+      </c>
+      <c r="S24">
+        <v>0.02003844344929199</v>
+      </c>
+      <c r="T24">
+        <v>0.01489830588342215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>160.7828525</v>
+      </c>
+      <c r="H25">
+        <v>321.565705</v>
+      </c>
+      <c r="I25">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J25">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.06141333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.18424</v>
+      </c>
+      <c r="O25">
+        <v>0.03671110429209477</v>
+      </c>
+      <c r="P25">
+        <v>0.03748249619916014</v>
+      </c>
+      <c r="Q25">
+        <v>9.874210914866666</v>
+      </c>
+      <c r="R25">
+        <v>59.24526548919999</v>
+      </c>
+      <c r="S25">
+        <v>0.00930428086386779</v>
+      </c>
+      <c r="T25">
+        <v>0.006917604288274763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>160.7828525</v>
+      </c>
+      <c r="H26">
+        <v>321.565705</v>
+      </c>
+      <c r="I26">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J26">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.103284</v>
+      </c>
+      <c r="N26">
+        <v>0.206568</v>
+      </c>
+      <c r="O26">
+        <v>0.06174017090270382</v>
+      </c>
+      <c r="P26">
+        <v>0.04202499063649649</v>
+      </c>
+      <c r="Q26">
+        <v>16.60629613761</v>
+      </c>
+      <c r="R26">
+        <v>66.42518455043999</v>
+      </c>
+      <c r="S26">
+        <v>0.01564779653838017</v>
+      </c>
+      <c r="T26">
+        <v>0.007755947039841191</v>
       </c>
     </row>
   </sheetData>
